--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_38.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_23_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1368572.107621428</v>
+        <v>1364784.349658461</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33985356.66610494</v>
+        <v>33433489.40621613</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5980171.255508402</v>
+        <v>5915902.834835913</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3741939.472111186</v>
+        <v>3854112.726236902</v>
       </c>
     </row>
     <row r="11">
@@ -1369,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>225.3398881276953</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>217.4203504534379</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>37.13352265693013</v>
+        <v>27.01028645237279</v>
       </c>
       <c r="T11" t="n">
-        <v>206.725355585158</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.5518011332803</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>356.0625971350909</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>397.8787166126561</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>412.0228553560615</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2750790329222</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306968</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U12" t="n">
-        <v>174.5071388043578</v>
+        <v>174.5071388043577</v>
       </c>
       <c r="V12" t="n">
         <v>197.1263427586206</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>186.9722491013764</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C13" t="n">
-        <v>167.9079109711865</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D13" t="n">
-        <v>161.2910294400717</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E13" t="n">
-        <v>114.4307150251263</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>49.41291406313623</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,25 +1578,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>140.054089680387</v>
+        <v>73.40830250827355</v>
       </c>
       <c r="T13" t="n">
-        <v>236.8965684252066</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U13" t="n">
-        <v>272.6745822013236</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V13" t="n">
-        <v>281.157769617853</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W13" t="n">
-        <v>266.3779569391505</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X13" t="n">
-        <v>240.0096536895008</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.2172905486119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>419.1083913496378</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G14" t="n">
-        <v>303.6421761534255</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>253.9729163065505</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>356.0625971350909</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>397.8787166126561</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>412.0228553560615</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2750790329222</v>
+        <v>180.6833933519011</v>
       </c>
     </row>
     <row r="15">
@@ -1691,7 +1691,7 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D15" t="n">
-        <v>94.13938596491221</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E15" t="n">
         <v>93.17921052631581</v>
@@ -1751,7 +1751,7 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X15" t="n">
-        <v>153.3187614035088</v>
+        <v>153.3187614035089</v>
       </c>
       <c r="Y15" t="n">
         <v>125.2209214285714</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>186.9722491013764</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C16" t="n">
-        <v>167.9079109711865</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D16" t="n">
-        <v>161.2910294400717</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E16" t="n">
-        <v>165.1322402813493</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F16" t="n">
-        <v>172.0118000674405</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G16" t="n">
-        <v>160.1655851531859</v>
+        <v>28.69636260685393</v>
       </c>
       <c r="H16" t="n">
-        <v>111.4172910746336</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>59.53615026769357</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>140.054089680387</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>236.8965684252066</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W16" t="n">
-        <v>266.3779569391505</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X16" t="n">
-        <v>240.0096536895008</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.2172905486119</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C17" t="n">
-        <v>357.5222927775801</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D17" t="n">
-        <v>428.6225035468791</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E17" t="n">
-        <v>426.508813962867</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F17" t="n">
-        <v>420.6605718644635</v>
+        <v>223.5105677891447</v>
       </c>
       <c r="G17" t="n">
-        <v>392.5794809768968</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>264.0961525111078</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>82.55</v>
       </c>
       <c r="G18" t="n">
-        <v>83.52738940623966</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H18" t="n">
         <v>31.62322353306971</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>186.9722491013764</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C19" t="n">
-        <v>167.9079109711865</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D19" t="n">
-        <v>161.2910294400717</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F19" t="n">
-        <v>172.0118000674405</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>28.69636260685393</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.47300463807275</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>236.8965684252066</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U19" t="n">
-        <v>272.6745822013236</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V19" t="n">
-        <v>281.157769617853</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W19" t="n">
-        <v>266.3779569391506</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X19" t="n">
-        <v>240.0096536895008</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.217290548612</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>262.4734107846251</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>229.3588098875481</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>206.7253555851581</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.5518011332803</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>356.0625971350909</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>397.8787166126562</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>412.0228553560616</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2750790329223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2174,7 +2174,7 @@
         <v>82.55</v>
       </c>
       <c r="G21" t="n">
-        <v>83.52738940623966</v>
+        <v>83.52738940623971</v>
       </c>
       <c r="H21" t="n">
         <v>31.62322353306971</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>186.9722491013764</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.9079109711865</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.2910294400717</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E22" t="n">
-        <v>165.1322402813493</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F22" t="n">
-        <v>172.0118000674405</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G22" t="n">
-        <v>160.1655851531859</v>
+        <v>66.01708235183712</v>
       </c>
       <c r="H22" t="n">
-        <v>60.95999942192131</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I22" t="n">
-        <v>59.53615026769361</v>
+        <v>49.41291406313623</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>140.054089680387</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T22" t="n">
-        <v>236.8965684252066</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U22" t="n">
-        <v>272.6745822013236</v>
+        <v>262.5513459967663</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W22" t="n">
-        <v>266.3779569391506</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X22" t="n">
-        <v>240.0096536895008</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="23">
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>408.9866337992729</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D23" t="n">
-        <v>406.7762726881619</v>
+        <v>418.4992673423217</v>
       </c>
       <c r="E23" t="n">
-        <v>404.6625831041497</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F23" t="n">
-        <v>398.8143410057463</v>
+        <v>410.5373356599061</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>15.28729179821297</v>
+        <v>27.01028645237279</v>
       </c>
       <c r="T23" t="n">
-        <v>184.8791247264409</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U23" t="n">
-        <v>231.7055702745632</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>334.2163662763737</v>
+        <v>39.99723161662582</v>
       </c>
       <c r="W23" t="n">
-        <v>147.4756664147151</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="24">
@@ -2450,7 +2450,7 @@
         <v>44.17482029426311</v>
       </c>
       <c r="T24" t="n">
-        <v>124.8306395731037</v>
+        <v>124.830639573104</v>
       </c>
       <c r="U24" t="n">
         <v>174.5071388043578</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>165.1260182426592</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C25" t="n">
-        <v>146.0616801124693</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D25" t="n">
-        <v>139.4447985813545</v>
+        <v>151.1677932355143</v>
       </c>
       <c r="E25" t="n">
-        <v>143.2860094226321</v>
+        <v>155.0090040767919</v>
       </c>
       <c r="F25" t="n">
-        <v>150.1655692087233</v>
+        <v>161.8885638628831</v>
       </c>
       <c r="G25" t="n">
-        <v>138.3193542944688</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H25" t="n">
-        <v>106.2462057253392</v>
+        <v>117.9692003794991</v>
       </c>
       <c r="I25" t="n">
-        <v>37.68991940897641</v>
+        <v>49.41291406313623</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>118.2078588216698</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T25" t="n">
-        <v>215.0503375664894</v>
+        <v>226.7733322206492</v>
       </c>
       <c r="U25" t="n">
-        <v>250.8283513426066</v>
+        <v>262.5513459967667</v>
       </c>
       <c r="V25" t="n">
-        <v>259.3115387591358</v>
+        <v>271.0345334132957</v>
       </c>
       <c r="W25" t="n">
-        <v>244.5317260804334</v>
+        <v>256.2547207345932</v>
       </c>
       <c r="X25" t="n">
-        <v>218.1634228307836</v>
+        <v>229.8864174849435</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.3710596898948</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>406.7762726881618</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>404.6625831041497</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>398.8143410057463</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>370.7332501181795</v>
+        <v>61.39441390694426</v>
       </c>
       <c r="H26" t="n">
-        <v>242.2499216523906</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>184.8791247264409</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>231.7055702745631</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>292.9827865180044</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426341</v>
       </c>
       <c r="T27" t="n">
         <v>124.8306395731037</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>165.1260182426592</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>146.0616801124693</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>139.4447985813545</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>143.2860094226321</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>150.1655692087233</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>138.3193542944687</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>106.2462057253392</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
-        <v>37.68991940897638</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>118.2078588216698</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>215.0503375664894</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
-        <v>250.8283513426068</v>
+        <v>275.6027656317441</v>
       </c>
       <c r="V28" t="n">
-        <v>259.3115387591358</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>244.5317260804333</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>218.1634228307836</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y28" t="n">
-        <v>200.3710596898948</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="29">
@@ -2791,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>397.2621604909207</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>354.1387041488496</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>398.8143410057463</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>370.7332501181796</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>242.2499216523906</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>390.1766244973444</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>379.4288481742051</v>
+        <v>178.0705694226347</v>
       </c>
     </row>
     <row r="30">
@@ -2927,7 +2927,7 @@
         <v>124.8306395731037</v>
       </c>
       <c r="U30" t="n">
-        <v>174.5071388043578</v>
+        <v>174.507138804358</v>
       </c>
       <c r="V30" t="n">
         <v>197.1263427586206</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>165.1260182426592</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>146.0616801124693</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>139.4447985813545</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>143.2860094226321</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>150.1655692087233</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>138.3193542944688</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>106.2462057253392</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>37.68991940897642</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>118.2078588216698</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T31" t="n">
-        <v>215.0503375664894</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
-        <v>250.8283513426066</v>
+        <v>275.6027656317446</v>
       </c>
       <c r="V31" t="n">
-        <v>259.3115387591358</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>244.5317260804334</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>218.1634228307836</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
-        <v>200.3710596898948</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>397.2621604909207</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>408.9866337992729</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>406.7762726881619</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>404.6625831041497</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>130.2234355353688</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>15.28729179821297</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3088,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>390.1766244973444</v>
+        <v>4.248321282176311</v>
       </c>
       <c r="Y32" t="n">
-        <v>379.4288481742051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3161,7 +3161,7 @@
         <v>44.17482029426311</v>
       </c>
       <c r="T33" t="n">
-        <v>124.8306395731037</v>
+        <v>124.830639573104</v>
       </c>
       <c r="U33" t="n">
         <v>174.5071388043578</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>165.1260182426592</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>146.0616801124693</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>139.4447985813545</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
-        <v>143.2860094226321</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>150.1655692087233</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>138.3193542944688</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>106.2462057253392</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>37.68991940897641</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>118.2078588216698</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>215.0503375664891</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U34" t="n">
-        <v>250.8283513426066</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V34" t="n">
-        <v>259.3115387591358</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>244.5317260804334</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
-        <v>218.1634228307836</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>200.3710596898948</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>406.7762726881619</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>404.6625831041497</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>361.9987888703326</v>
       </c>
       <c r="H35" t="n">
-        <v>242.2499216523906</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>184.8791247264409</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>231.7055702745632</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>334.2163662763737</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>95.3233524203696</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>390.1766244973444</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T36" t="n">
         <v>124.8306395731037</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>165.1260182426592</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>146.0616801124693</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>139.4447985813545</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>143.2860094226321</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>150.1655692087233</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>39.44144498094187</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>118.2078588216698</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>215.0503375664894</v>
+        <v>232.6533883048363</v>
       </c>
       <c r="U37" t="n">
-        <v>250.8283513426064</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>259.3115387591358</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>244.5317260804334</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>218.1634228307836</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>200.3710596898948</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>394.3592152374175</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>426.508813962867</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>420.6605718644635</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>392.5794809768968</v>
+        <v>214.230991478422</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>37.13352265693019</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>206.7253555851581</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>412.0228553560616</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>44.17482029426311</v>
+        <v>44.17482029426318</v>
       </c>
       <c r="T39" t="n">
         <v>124.8306395731037</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>186.9722491013764</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9079109711865</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>161.2910294400717</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>165.1322402813493</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>172.0118000674405</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>154.2373327819304</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>272.6745822013236</v>
+        <v>123.3473291566868</v>
       </c>
       <c r="V40" t="n">
-        <v>281.157769617853</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>266.3779569391506</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>240.0096536895009</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.217290548612</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>401.5266111030795</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.6288862205434</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415287</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,16 +3793,16 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.653539015579</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655118</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>12.56684545577692</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3909,7 +3909,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>87.92455141075536</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>204.8426041147492</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>128.9395398500433</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4140,13 +4140,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>49.34995949258704</v>
+        <v>18.84333618152623</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -5017,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>47.20655154895474</v>
+        <v>1524.82526994691</v>
       </c>
       <c r="C11" t="n">
-        <v>47.20655154895474</v>
+        <v>1524.82526994691</v>
       </c>
       <c r="D11" t="n">
-        <v>47.20655154895474</v>
+        <v>1102.098737277898</v>
       </c>
       <c r="E11" t="n">
-        <v>47.20655154895474</v>
+        <v>681.5072445927367</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895474</v>
+        <v>266.823067158488</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L11" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q11" t="n">
         <v>2243.650993163596</v>
@@ -5068,25 +5068,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2322.818968703363</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="T11" t="n">
-        <v>2114.005478213305</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="U11" t="n">
-        <v>1857.892547775648</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="V11" t="n">
-        <v>1498.233358750304</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="W11" t="n">
-        <v>1096.335665202166</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="X11" t="n">
-        <v>680.1509628223058</v>
+        <v>2333.044459819077</v>
       </c>
       <c r="Y11" t="n">
-        <v>274.8226001627884</v>
+        <v>1937.941588275274</v>
       </c>
     </row>
     <row r="12">
@@ -5111,13 +5111,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235846</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J12" t="n">
         <v>175.316627066898</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>495.3173146160098</v>
+        <v>848.4511478968878</v>
       </c>
       <c r="C13" t="n">
-        <v>325.7133641400638</v>
+        <v>689.0726885366564</v>
       </c>
       <c r="D13" t="n">
-        <v>162.7931323824157</v>
+        <v>536.3779478947228</v>
       </c>
       <c r="E13" t="n">
-        <v>47.20655154895474</v>
+        <v>379.8031963020036</v>
       </c>
       <c r="F13" t="n">
-        <v>47.20655154895474</v>
+        <v>216.2793944203035</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895474</v>
+        <v>216.2793944203035</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895474</v>
+        <v>97.11858595616305</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J13" t="n">
-        <v>195.5908020119444</v>
+        <v>205.6128058544561</v>
       </c>
       <c r="K13" t="n">
-        <v>570.0482587467548</v>
+        <v>590.0922664317783</v>
       </c>
       <c r="L13" t="n">
-        <v>1115.02784372913</v>
+        <v>1145.093855256666</v>
       </c>
       <c r="M13" t="n">
-        <v>1397.861187395722</v>
+        <v>1347.751168183163</v>
       </c>
       <c r="N13" t="n">
-        <v>1528.259000795728</v>
+        <v>1488.170985425681</v>
       </c>
       <c r="O13" t="n">
-        <v>1648.923783739607</v>
+        <v>1618.857772212071</v>
       </c>
       <c r="P13" t="n">
-        <v>2100.098635483749</v>
+        <v>2080.054627798725</v>
       </c>
       <c r="Q13" t="n">
-        <v>2340.957583174853</v>
+        <v>2330.935579332341</v>
       </c>
       <c r="R13" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2218.8587999928</v>
+        <v>2286.177776934329</v>
       </c>
       <c r="T13" t="n">
-        <v>1979.569336937036</v>
+        <v>2057.113804994279</v>
       </c>
       <c r="U13" t="n">
-        <v>1704.140466026608</v>
+        <v>1791.910425199566</v>
       </c>
       <c r="V13" t="n">
-        <v>1420.142718937868</v>
+        <v>1518.13816922654</v>
       </c>
       <c r="W13" t="n">
-        <v>1151.074075564989</v>
+        <v>1259.295016969375</v>
       </c>
       <c r="X13" t="n">
-        <v>908.6400819392304</v>
+        <v>1027.086514459331</v>
       </c>
       <c r="Y13" t="n">
-        <v>684.1781722941678</v>
+        <v>1027.086514459331</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>353.9158203907987</v>
+        <v>1566.114781611795</v>
       </c>
       <c r="C14" t="n">
-        <v>353.9158203907987</v>
+        <v>1141.155560951761</v>
       </c>
       <c r="D14" t="n">
-        <v>353.9158203907987</v>
+        <v>718.4290282827494</v>
       </c>
       <c r="E14" t="n">
-        <v>353.9158203907987</v>
+        <v>718.4290282827494</v>
       </c>
       <c r="F14" t="n">
-        <v>353.9158203907987</v>
+        <v>303.7448508485007</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>303.7448508485007</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
         <v>118.4065018001355</v>
@@ -5281,10 +5281,10 @@
         <v>276.0532770435808</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867024</v>
       </c>
       <c r="M14" t="n">
         <v>1131.58869045549</v>
@@ -5296,7 +5296,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5308,22 +5308,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="V14" t="n">
-        <v>2000.668388422393</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="W14" t="n">
-        <v>1598.770694874255</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="X14" t="n">
-        <v>1182.585992494395</v>
+        <v>2161.739578073392</v>
       </c>
       <c r="Y14" t="n">
-        <v>777.2576298348773</v>
+        <v>1979.231099940159</v>
       </c>
     </row>
     <row r="15">
@@ -5339,22 +5339,22 @@
         <v>436.114843903033</v>
       </c>
       <c r="D15" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E15" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F15" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J15" t="n">
         <v>175.316627066898</v>
@@ -5363,10 +5363,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1054.743932615178</v>
+        <v>708.3645298809471</v>
       </c>
       <c r="C16" t="n">
-        <v>885.1399821392321</v>
+        <v>548.9860705207157</v>
       </c>
       <c r="D16" t="n">
-        <v>722.2197503815839</v>
+        <v>396.291329878782</v>
       </c>
       <c r="E16" t="n">
-        <v>555.4195076731503</v>
+        <v>239.7165782860629</v>
       </c>
       <c r="F16" t="n">
-        <v>381.6702146757357</v>
+        <v>76.19277640436275</v>
       </c>
       <c r="G16" t="n">
-        <v>219.8867953290832</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>107.3440770718775</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
-        <v>109.0111168472545</v>
+        <v>119.8340263491495</v>
       </c>
       <c r="K16" t="n">
-        <v>208.7101190109294</v>
+        <v>229.5550323553361</v>
       </c>
       <c r="L16" t="n">
-        <v>753.689703993305</v>
+        <v>784.5566211802235</v>
       </c>
       <c r="M16" t="n">
-        <v>1325.698832140282</v>
+        <v>928.0819189573814</v>
       </c>
       <c r="N16" t="n">
-        <v>1456.096645540288</v>
+        <v>1068.501736199899</v>
       </c>
       <c r="O16" t="n">
-        <v>1996.430677709948</v>
+        <v>1618.857772212071</v>
       </c>
       <c r="P16" t="n">
-        <v>2100.098635483749</v>
+        <v>2080.054627798725</v>
       </c>
       <c r="Q16" t="n">
-        <v>2340.957583174853</v>
+        <v>2330.935579332341</v>
       </c>
       <c r="R16" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2218.8587999928</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>1979.569336937036</v>
+        <v>2131.263605507687</v>
       </c>
       <c r="U16" t="n">
-        <v>1979.569336937036</v>
+        <v>1866.060225712974</v>
       </c>
       <c r="V16" t="n">
-        <v>1979.569336937036</v>
+        <v>1592.287969739948</v>
       </c>
       <c r="W16" t="n">
-        <v>1710.500693564157</v>
+        <v>1333.444817482783</v>
       </c>
       <c r="X16" t="n">
-        <v>1468.066699938399</v>
+        <v>1101.236314972739</v>
       </c>
       <c r="Y16" t="n">
-        <v>1243.604790293336</v>
+        <v>886.9998964433905</v>
       </c>
     </row>
     <row r="17">
@@ -5491,49 +5491,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2360.327577447737</v>
+        <v>1541.252047855226</v>
       </c>
       <c r="C17" t="n">
-        <v>1999.193948379474</v>
+        <v>1116.292827195193</v>
       </c>
       <c r="D17" t="n">
-        <v>1566.241924594748</v>
+        <v>693.5662945261813</v>
       </c>
       <c r="E17" t="n">
-        <v>1135.424940793872</v>
+        <v>272.9748018410201</v>
       </c>
       <c r="F17" t="n">
-        <v>710.515272243909</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G17" t="n">
-        <v>313.9703419642152</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J17" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M17" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N17" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O17" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P17" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q17" t="n">
         <v>2243.650993163596</v>
@@ -5557,10 +5557,10 @@
         <v>2360.327577447737</v>
       </c>
       <c r="X17" t="n">
-        <v>2360.327577447737</v>
+        <v>1954.368366183591</v>
       </c>
       <c r="Y17" t="n">
-        <v>2360.327577447737</v>
+        <v>1954.368366183591</v>
       </c>
     </row>
     <row r="18">
@@ -5585,13 +5585,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J18" t="n">
         <v>175.316627066898</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>553.4800267799635</v>
+        <v>708.3645298809471</v>
       </c>
       <c r="C19" t="n">
-        <v>383.8760763040176</v>
+        <v>548.9860705207157</v>
       </c>
       <c r="D19" t="n">
-        <v>220.9558445463694</v>
+        <v>396.291329878782</v>
       </c>
       <c r="E19" t="n">
-        <v>220.9558445463694</v>
+        <v>239.7165782860629</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895474</v>
+        <v>76.19277640436275</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J19" t="n">
-        <v>195.5908020119443</v>
+        <v>205.6128058544561</v>
       </c>
       <c r="K19" t="n">
-        <v>570.0482587467548</v>
+        <v>315.3338118606428</v>
       </c>
       <c r="L19" t="n">
-        <v>1115.02784372913</v>
+        <v>763.5700927648483</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.531137663776</v>
+        <v>1347.751168183163</v>
       </c>
       <c r="N19" t="n">
-        <v>1378.928951063783</v>
+        <v>1488.170985425681</v>
       </c>
       <c r="O19" t="n">
-        <v>1648.923783739607</v>
+        <v>1618.857772212071</v>
       </c>
       <c r="P19" t="n">
-        <v>2100.098635483749</v>
+        <v>2080.054627798725</v>
       </c>
       <c r="Q19" t="n">
-        <v>2340.957583174853</v>
+        <v>2330.935579332341</v>
       </c>
       <c r="R19" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S19" t="n">
-        <v>2277.021512156754</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T19" t="n">
-        <v>2037.73204910099</v>
+        <v>2131.263605507687</v>
       </c>
       <c r="U19" t="n">
-        <v>1762.303178190562</v>
+        <v>1866.060225712974</v>
       </c>
       <c r="V19" t="n">
-        <v>1478.305431101822</v>
+        <v>1592.287969739948</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.236787728943</v>
+        <v>1333.444817482783</v>
       </c>
       <c r="X19" t="n">
-        <v>966.8027941031842</v>
+        <v>1101.236314972739</v>
       </c>
       <c r="Y19" t="n">
-        <v>742.3408844581215</v>
+        <v>886.9998964433905</v>
       </c>
     </row>
     <row r="20">
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.20655154895474</v>
+        <v>1541.252047855226</v>
       </c>
       <c r="C20" t="n">
-        <v>47.20655154895474</v>
+        <v>1116.292827195193</v>
       </c>
       <c r="D20" t="n">
-        <v>47.20655154895474</v>
+        <v>693.5662945261813</v>
       </c>
       <c r="E20" t="n">
-        <v>47.20655154895474</v>
+        <v>461.8907289832034</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L20" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M20" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P20" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q20" t="n">
         <v>2243.650993163596</v>
@@ -5782,22 +5782,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T20" t="n">
-        <v>2151.514086957679</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U20" t="n">
-        <v>1895.401156520022</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V20" t="n">
-        <v>1535.741967494677</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W20" t="n">
-        <v>1133.84427394654</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="X20" t="n">
-        <v>717.6595715666795</v>
+        <v>1954.368366183591</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.331208907162</v>
+        <v>1954.368366183591</v>
       </c>
     </row>
     <row r="21">
@@ -5810,7 +5810,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C21" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D21" t="n">
         <v>341.0245550495863</v>
@@ -5822,13 +5822,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I21" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J21" t="n">
         <v>175.316627066898</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1003.776971349812</v>
+        <v>755.7566101041687</v>
       </c>
       <c r="C22" t="n">
-        <v>834.1730208738663</v>
+        <v>755.7566101041687</v>
       </c>
       <c r="D22" t="n">
-        <v>671.2527891162181</v>
+        <v>603.061869462235</v>
       </c>
       <c r="E22" t="n">
-        <v>504.4525464077844</v>
+        <v>446.4871178695159</v>
       </c>
       <c r="F22" t="n">
-        <v>330.7032534103698</v>
+        <v>282.9633159878157</v>
       </c>
       <c r="G22" t="n">
-        <v>168.9198340637173</v>
+        <v>216.2793944203035</v>
       </c>
       <c r="H22" t="n">
-        <v>107.3440770718776</v>
+        <v>97.11858595616305</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J22" t="n">
-        <v>195.5908020119443</v>
+        <v>205.6128058544561</v>
       </c>
       <c r="K22" t="n">
-        <v>570.0482587467548</v>
+        <v>590.0922664317783</v>
       </c>
       <c r="L22" t="n">
-        <v>1115.02784372913</v>
+        <v>1145.093855256666</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.531137663776</v>
+        <v>1288.619153033823</v>
       </c>
       <c r="N22" t="n">
-        <v>1378.928951063783</v>
+        <v>1429.038970276341</v>
       </c>
       <c r="O22" t="n">
-        <v>1648.923783739607</v>
+        <v>1618.857772212071</v>
       </c>
       <c r="P22" t="n">
-        <v>2100.098635483749</v>
+        <v>2080.054627798725</v>
       </c>
       <c r="Q22" t="n">
-        <v>2340.957583174853</v>
+        <v>2330.935579332341</v>
       </c>
       <c r="R22" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2218.8587999928</v>
+        <v>2229.084291108515</v>
       </c>
       <c r="T22" t="n">
-        <v>1979.569336937036</v>
+        <v>2000.020319168465</v>
       </c>
       <c r="U22" t="n">
-        <v>1704.140466026608</v>
+        <v>1734.816939373752</v>
       </c>
       <c r="V22" t="n">
-        <v>1704.140466026608</v>
+        <v>1461.044683400726</v>
       </c>
       <c r="W22" t="n">
-        <v>1435.071822653729</v>
+        <v>1202.201531143561</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.63782902797</v>
+        <v>969.9930286335168</v>
       </c>
       <c r="Y22" t="n">
-        <v>1192.63782902797</v>
+        <v>755.7566101041687</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1687.807782918097</v>
+        <v>1738.798338927738</v>
       </c>
       <c r="C23" t="n">
-        <v>1274.689970999639</v>
+        <v>1313.839118267705</v>
       </c>
       <c r="D23" t="n">
-        <v>863.8048470722026</v>
+        <v>891.1125855986932</v>
       </c>
       <c r="E23" t="n">
-        <v>455.054763128617</v>
+        <v>470.521092913532</v>
       </c>
       <c r="F23" t="n">
-        <v>52.21199443594386</v>
+        <v>55.83691547928332</v>
       </c>
       <c r="G23" t="n">
-        <v>52.21199443594386</v>
+        <v>55.83691547928332</v>
       </c>
       <c r="H23" t="n">
-        <v>52.21199443594386</v>
+        <v>55.83691547928332</v>
       </c>
       <c r="I23" t="n">
-        <v>147.9386148333711</v>
+        <v>139.9577711690924</v>
       </c>
       <c r="J23" t="n">
-        <v>330.1120602230631</v>
+        <v>604.2042300509828</v>
       </c>
       <c r="K23" t="n">
-        <v>590.9103807485319</v>
+        <v>853.3967858688321</v>
       </c>
       <c r="L23" t="n">
-        <v>908.5529257586792</v>
+        <v>1159.433566171361</v>
       </c>
       <c r="M23" t="n">
-        <v>1259.227484073713</v>
+        <v>1498.502359778777</v>
       </c>
       <c r="N23" t="n">
-        <v>1615.179456196437</v>
+        <v>1842.848567193882</v>
       </c>
       <c r="O23" t="n">
-        <v>1952.661640883976</v>
+        <v>2168.724987173804</v>
       </c>
       <c r="P23" t="n">
-        <v>2244.288602209492</v>
+        <v>2448.746183791701</v>
       </c>
       <c r="Q23" t="n">
-        <v>2469.396467366806</v>
+        <v>2662.248284241397</v>
       </c>
       <c r="R23" t="n">
-        <v>2610.599721797193</v>
+        <v>2791.845773964166</v>
       </c>
       <c r="S23" t="n">
-        <v>2595.158012910109</v>
+        <v>2764.562656335506</v>
       </c>
       <c r="T23" t="n">
-        <v>2408.411422277341</v>
+        <v>2565.974656961162</v>
       </c>
       <c r="U23" t="n">
-        <v>2174.365391696974</v>
+        <v>2565.974656961162</v>
       </c>
       <c r="V23" t="n">
-        <v>1836.77310252892</v>
+        <v>2525.573412903964</v>
       </c>
       <c r="W23" t="n">
-        <v>1687.807782918097</v>
+        <v>2133.901210471541</v>
       </c>
       <c r="X23" t="n">
-        <v>1687.807782918097</v>
+        <v>2133.901210471541</v>
       </c>
       <c r="Y23" t="n">
-        <v>1687.807782918097</v>
+        <v>1738.798338927738</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>547.5767479533799</v>
+        <v>551.2016689967194</v>
       </c>
       <c r="C24" t="n">
-        <v>441.1202867900222</v>
+        <v>444.7452078333616</v>
       </c>
       <c r="D24" t="n">
-        <v>346.0299979365755</v>
+        <v>349.6549189799149</v>
       </c>
       <c r="E24" t="n">
-        <v>251.9095832635292</v>
+        <v>255.5345043068686</v>
       </c>
       <c r="F24" t="n">
-        <v>168.5257448796908</v>
+        <v>172.1506659230302</v>
       </c>
       <c r="G24" t="n">
-        <v>84.15464446934762</v>
+        <v>87.77956551268707</v>
       </c>
       <c r="H24" t="n">
-        <v>52.21199443594386</v>
+        <v>55.83691547928332</v>
       </c>
       <c r="I24" t="n">
-        <v>86.42873060741998</v>
+        <v>90.05365165075943</v>
       </c>
       <c r="J24" t="n">
-        <v>180.3220699538871</v>
+        <v>183.9469909972266</v>
       </c>
       <c r="K24" t="n">
-        <v>340.8007420080574</v>
+        <v>344.4256630513968</v>
       </c>
       <c r="L24" t="n">
-        <v>556.5841208830797</v>
+        <v>560.2090419264191</v>
       </c>
       <c r="M24" t="n">
-        <v>808.3931461857771</v>
+        <v>812.0180672291166</v>
       </c>
       <c r="N24" t="n">
-        <v>1066.866807107097</v>
+        <v>1070.491728150437</v>
       </c>
       <c r="O24" t="n">
-        <v>1303.319709921628</v>
+        <v>1306.944630964967</v>
       </c>
       <c r="P24" t="n">
-        <v>1493.094010486434</v>
+        <v>1496.718931529773</v>
       </c>
       <c r="Q24" t="n">
-        <v>1619.953104694668</v>
+        <v>1623.578025738008</v>
       </c>
       <c r="R24" t="n">
-        <v>1681.656559120581</v>
+        <v>1685.281480163921</v>
       </c>
       <c r="S24" t="n">
-        <v>1637.035528520315</v>
+        <v>1640.660449563655</v>
       </c>
       <c r="T24" t="n">
-        <v>1510.943973395968</v>
+        <v>1514.568894439307</v>
       </c>
       <c r="U24" t="n">
-        <v>1334.674136219849</v>
+        <v>1338.299057263188</v>
       </c>
       <c r="V24" t="n">
-        <v>1135.556618281848</v>
+        <v>1139.181539325188</v>
       </c>
       <c r="W24" t="n">
-        <v>950.2338640150424</v>
+        <v>953.8587850583817</v>
       </c>
       <c r="X24" t="n">
-        <v>795.3664282539223</v>
+        <v>798.9913492972618</v>
       </c>
       <c r="Y24" t="n">
-        <v>668.8806490331431</v>
+        <v>672.5055700764825</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>922.124657823786</v>
+        <v>1008.639440058154</v>
       </c>
       <c r="C25" t="n">
-        <v>774.5876072051302</v>
+        <v>849.2609806979228</v>
       </c>
       <c r="D25" t="n">
-        <v>633.7342753047722</v>
+        <v>696.5662400559893</v>
       </c>
       <c r="E25" t="n">
-        <v>489.0009324536284</v>
+        <v>539.9914884632701</v>
       </c>
       <c r="F25" t="n">
-        <v>337.3185393135038</v>
+        <v>376.46768658157</v>
       </c>
       <c r="G25" t="n">
-        <v>197.6020198241415</v>
+        <v>224.9097583506321</v>
       </c>
       <c r="H25" t="n">
-        <v>90.28262010157661</v>
+        <v>105.7489498864916</v>
       </c>
       <c r="I25" t="n">
-        <v>52.21199443594386</v>
+        <v>55.83691547928332</v>
       </c>
       <c r="J25" t="n">
-        <v>222.2240134490635</v>
+        <v>214.2431697847847</v>
       </c>
       <c r="K25" t="n">
-        <v>618.3092387340039</v>
+        <v>598.7226303621068</v>
       </c>
       <c r="L25" t="n">
-        <v>1184.916592266509</v>
+        <v>1153.724219186994</v>
       </c>
       <c r="M25" t="n">
-        <v>1340.047654751285</v>
+        <v>1297.249516964152</v>
       </c>
       <c r="N25" t="n">
-        <v>1492.073236701422</v>
+        <v>1500.019932716329</v>
       </c>
       <c r="O25" t="n">
-        <v>1834.312622438672</v>
+        <v>2050.375968728501</v>
       </c>
       <c r="P25" t="n">
-        <v>2307.115242732944</v>
+        <v>2511.572824315154</v>
       </c>
       <c r="Q25" t="n">
-        <v>2569.601958974179</v>
+        <v>2762.45377584877</v>
       </c>
       <c r="R25" t="n">
-        <v>2610.599721797193</v>
+        <v>2791.845773964166</v>
       </c>
       <c r="S25" t="n">
-        <v>2491.197844199547</v>
+        <v>2660.602487624944</v>
       </c>
       <c r="T25" t="n">
-        <v>2273.975281001072</v>
+        <v>2431.538515684894</v>
       </c>
       <c r="U25" t="n">
-        <v>2020.613309947934</v>
+        <v>2166.33513589018</v>
       </c>
       <c r="V25" t="n">
-        <v>1758.682462716484</v>
+        <v>1892.562879917155</v>
       </c>
       <c r="W25" t="n">
-        <v>1511.680719200895</v>
+        <v>1633.71972765999</v>
       </c>
       <c r="X25" t="n">
-        <v>1291.313625432427</v>
+        <v>1401.511225149946</v>
       </c>
       <c r="Y25" t="n">
-        <v>1088.918615644654</v>
+        <v>1187.274806620598</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1893.864891980013</v>
+        <v>1699.43571835685</v>
       </c>
       <c r="C26" t="n">
-        <v>1893.864891980013</v>
+        <v>1261.293245540274</v>
       </c>
       <c r="D26" t="n">
-        <v>1482.979768052576</v>
+        <v>825.3834607147182</v>
       </c>
       <c r="E26" t="n">
-        <v>1074.229684108991</v>
+        <v>391.6087158730134</v>
       </c>
       <c r="F26" t="n">
-        <v>671.3869154163177</v>
+        <v>391.6087158730134</v>
       </c>
       <c r="G26" t="n">
-        <v>296.9088849939142</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H26" t="n">
-        <v>52.21199443594385</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I26" t="n">
-        <v>147.9386148333715</v>
+        <v>131.0725551661405</v>
       </c>
       <c r="J26" t="n">
-        <v>330.1120602230635</v>
+        <v>369.0136545322792</v>
       </c>
       <c r="K26" t="n">
-        <v>590.910380748531</v>
+        <v>605.2853049115001</v>
       </c>
       <c r="L26" t="n">
-        <v>908.5529257586782</v>
+        <v>898.4011797754008</v>
       </c>
       <c r="M26" t="n">
-        <v>1259.227484073712</v>
+        <v>1224.549067944188</v>
       </c>
       <c r="N26" t="n">
-        <v>1615.179456196436</v>
+        <v>1555.974369920665</v>
       </c>
       <c r="O26" t="n">
-        <v>1952.661640883975</v>
+        <v>1868.929884461958</v>
       </c>
       <c r="P26" t="n">
-        <v>2244.288602209491</v>
+        <v>2136.030175641227</v>
       </c>
       <c r="Q26" t="n">
-        <v>2469.396467366805</v>
+        <v>2876.953661463856</v>
       </c>
       <c r="R26" t="n">
-        <v>2610.599721797193</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="S26" t="n">
-        <v>2610.599721797193</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.853131164424</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="U26" t="n">
-        <v>2189.807100584057</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="V26" t="n">
-        <v>2189.807100584057</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="W26" t="n">
-        <v>2189.807100584057</v>
+        <v>2953.163875962794</v>
       </c>
       <c r="X26" t="n">
-        <v>2189.807100584057</v>
+        <v>2534.021412542105</v>
       </c>
       <c r="Y26" t="n">
-        <v>1893.864891980013</v>
+        <v>2125.735288841758</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>547.5767479533799</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C27" t="n">
-        <v>441.1202867900222</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D27" t="n">
-        <v>346.0299979365755</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E27" t="n">
-        <v>251.9095832635292</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F27" t="n">
-        <v>168.5257448796908</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G27" t="n">
-        <v>84.1546444693476</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H27" t="n">
-        <v>52.21199443594385</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I27" t="n">
-        <v>86.42873060741998</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J27" t="n">
-        <v>180.3220699538871</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K27" t="n">
-        <v>340.8007420080574</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L27" t="n">
-        <v>556.5841208830797</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M27" t="n">
-        <v>808.3931461857771</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N27" t="n">
-        <v>1066.866807107097</v>
+        <v>1074.527417586113</v>
       </c>
       <c r="O27" t="n">
-        <v>1303.319709921628</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P27" t="n">
-        <v>1493.094010486434</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q27" t="n">
-        <v>1619.953104694668</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R27" t="n">
-        <v>1681.656559120581</v>
+        <v>1689.317169599597</v>
       </c>
       <c r="S27" t="n">
-        <v>1637.035528520315</v>
+        <v>1644.696138999331</v>
       </c>
       <c r="T27" t="n">
-        <v>1510.943973395968</v>
+        <v>1518.604583874984</v>
       </c>
       <c r="U27" t="n">
-        <v>1334.674136219849</v>
+        <v>1342.334746698865</v>
       </c>
       <c r="V27" t="n">
-        <v>1135.556618281848</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W27" t="n">
-        <v>950.2338640150424</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X27" t="n">
-        <v>795.3664282539223</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y27" t="n">
-        <v>668.8806490331431</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>922.1246578237858</v>
+        <v>1104.957894589637</v>
       </c>
       <c r="C28" t="n">
-        <v>774.58760720513</v>
+        <v>932.3961830728614</v>
       </c>
       <c r="D28" t="n">
-        <v>633.7342753047719</v>
+        <v>766.5181902743841</v>
       </c>
       <c r="E28" t="n">
-        <v>489.0009324536284</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F28" t="n">
-        <v>337.3185393135038</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G28" t="n">
-        <v>197.6020198241415</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H28" t="n">
-        <v>90.28262010157655</v>
+        <v>122.9678914787119</v>
       </c>
       <c r="I28" t="n">
-        <v>52.21199443594385</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="J28" t="n">
-        <v>222.2240134490635</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K28" t="n">
-        <v>618.309238734004</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L28" t="n">
-        <v>965.1941772839699</v>
+        <v>700.7873105388245</v>
       </c>
       <c r="M28" t="n">
-        <v>1120.325239768746</v>
+        <v>1290.875570058267</v>
       </c>
       <c r="N28" t="n">
-        <v>1272.350821718882</v>
+        <v>1860.633285019801</v>
       </c>
       <c r="O28" t="n">
-        <v>1834.312622438672</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P28" t="n">
-        <v>2307.115242732944</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q28" t="n">
-        <v>2569.601958974179</v>
+        <v>2977.159153071229</v>
       </c>
       <c r="R28" t="n">
-        <v>2610.599721797193</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="S28" t="n">
-        <v>2491.197844199547</v>
+        <v>2849.203707252232</v>
       </c>
       <c r="T28" t="n">
-        <v>2273.975281001072</v>
+        <v>2606.956483155638</v>
       </c>
       <c r="U28" t="n">
-        <v>2020.613309947934</v>
+        <v>2328.569851204381</v>
       </c>
       <c r="V28" t="n">
-        <v>1758.682462716484</v>
+        <v>2041.614343074812</v>
       </c>
       <c r="W28" t="n">
-        <v>1511.680719200895</v>
+        <v>1769.587938661103</v>
       </c>
       <c r="X28" t="n">
-        <v>1291.313625432426</v>
+        <v>1524.196183994516</v>
       </c>
       <c r="Y28" t="n">
-        <v>1088.918615644654</v>
+        <v>1296.776513308624</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1431.945546885607</v>
+        <v>1627.146115629102</v>
       </c>
       <c r="C29" t="n">
-        <v>1074.229684108991</v>
+        <v>1627.146115629102</v>
       </c>
       <c r="D29" t="n">
-        <v>1074.229684108991</v>
+        <v>1191.236330803547</v>
       </c>
       <c r="E29" t="n">
-        <v>1074.229684108991</v>
+        <v>757.4615859618418</v>
       </c>
       <c r="F29" t="n">
-        <v>671.3869154163178</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="G29" t="n">
-        <v>296.9088849939142</v>
+        <v>329.5941563710495</v>
       </c>
       <c r="H29" t="n">
-        <v>52.21199443594385</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I29" t="n">
-        <v>147.9386148333711</v>
+        <v>131.0725551661405</v>
       </c>
       <c r="J29" t="n">
-        <v>330.112060223063</v>
+        <v>288.7193304095858</v>
       </c>
       <c r="K29" t="n">
-        <v>590.9103807485305</v>
+        <v>976.4735309700051</v>
       </c>
       <c r="L29" t="n">
-        <v>908.5529257586778</v>
+        <v>1269.589405833906</v>
       </c>
       <c r="M29" t="n">
-        <v>1259.227484073712</v>
+        <v>1595.737294002693</v>
       </c>
       <c r="N29" t="n">
-        <v>1615.179456196436</v>
+        <v>1927.16259597917</v>
       </c>
       <c r="O29" t="n">
-        <v>1952.661640883975</v>
+        <v>2240.118110520463</v>
       </c>
       <c r="P29" t="n">
-        <v>2244.28860220949</v>
+        <v>2507.218401699732</v>
       </c>
       <c r="Q29" t="n">
-        <v>2469.396467366805</v>
+        <v>2707.7995967108</v>
       </c>
       <c r="R29" t="n">
-        <v>2610.599721797193</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="S29" t="n">
-        <v>2610.599721797193</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="T29" t="n">
-        <v>2610.599721797193</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="U29" t="n">
-        <v>2610.599721797193</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="V29" t="n">
-        <v>2610.599721797193</v>
+        <v>2631.013295681823</v>
       </c>
       <c r="W29" t="n">
-        <v>2610.599721797193</v>
+        <v>2226.157841092857</v>
       </c>
       <c r="X29" t="n">
-        <v>2216.481919274623</v>
+        <v>1807.015377672168</v>
       </c>
       <c r="Y29" t="n">
-        <v>1833.220456472395</v>
+        <v>1627.146115629102</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>547.5767479533799</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C30" t="n">
-        <v>441.1202867900222</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D30" t="n">
-        <v>346.0299979365755</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E30" t="n">
-        <v>251.9095832635292</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F30" t="n">
-        <v>168.5257448796908</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G30" t="n">
-        <v>84.1546444693476</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H30" t="n">
-        <v>52.21199443594385</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I30" t="n">
-        <v>86.42873060741998</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J30" t="n">
-        <v>180.3220699538871</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K30" t="n">
-        <v>340.8007420080574</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L30" t="n">
-        <v>556.5841208830797</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M30" t="n">
-        <v>808.3931461857771</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N30" t="n">
-        <v>1066.866807107097</v>
+        <v>1074.527417586113</v>
       </c>
       <c r="O30" t="n">
-        <v>1303.319709921628</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P30" t="n">
-        <v>1493.094010486434</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q30" t="n">
-        <v>1619.953104694668</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R30" t="n">
-        <v>1681.656559120581</v>
+        <v>1689.317169599597</v>
       </c>
       <c r="S30" t="n">
-        <v>1637.035528520315</v>
+        <v>1644.696138999331</v>
       </c>
       <c r="T30" t="n">
-        <v>1510.943973395968</v>
+        <v>1518.604583874984</v>
       </c>
       <c r="U30" t="n">
-        <v>1334.674136219849</v>
+        <v>1342.334746698865</v>
       </c>
       <c r="V30" t="n">
-        <v>1135.556618281848</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W30" t="n">
-        <v>950.2338640150424</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X30" t="n">
-        <v>795.3664282539223</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y30" t="n">
-        <v>668.8806490331431</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>922.1246578237859</v>
+        <v>1104.957894589636</v>
       </c>
       <c r="C31" t="n">
-        <v>774.5876072051301</v>
+        <v>932.3961830728615</v>
       </c>
       <c r="D31" t="n">
-        <v>633.734275304772</v>
+        <v>766.5181902743841</v>
       </c>
       <c r="E31" t="n">
-        <v>489.0009324536285</v>
+        <v>596.7601865251214</v>
       </c>
       <c r="F31" t="n">
-        <v>337.3185393135039</v>
+        <v>420.0531324868776</v>
       </c>
       <c r="G31" t="n">
-        <v>197.6020198241415</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H31" t="n">
-        <v>90.2826201015766</v>
+        <v>122.9678914787119</v>
       </c>
       <c r="I31" t="n">
-        <v>52.21199443594385</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="J31" t="n">
-        <v>135.6443282843736</v>
+        <v>118.7782686171431</v>
       </c>
       <c r="K31" t="n">
-        <v>374.5379023617808</v>
+        <v>215.5783691847013</v>
       </c>
       <c r="L31" t="n">
-        <v>522.9353741263253</v>
+        <v>757.6590525709603</v>
       </c>
       <c r="M31" t="n">
-        <v>678.0664366111015</v>
+        <v>1347.747312090403</v>
       </c>
       <c r="N31" t="n">
-        <v>1272.350821718882</v>
+        <v>1917.505027051937</v>
       </c>
       <c r="O31" t="n">
-        <v>1834.312622438672</v>
+        <v>2454.94015762548</v>
       </c>
       <c r="P31" t="n">
-        <v>2307.115242732944</v>
+        <v>2903.216107773505</v>
       </c>
       <c r="Q31" t="n">
-        <v>2569.601958974179</v>
+        <v>2977.159153071229</v>
       </c>
       <c r="R31" t="n">
-        <v>2610.599721797193</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="S31" t="n">
-        <v>2491.197844199547</v>
+        <v>2849.203707252232</v>
       </c>
       <c r="T31" t="n">
-        <v>2273.975281001072</v>
+        <v>2606.956483155638</v>
       </c>
       <c r="U31" t="n">
-        <v>2020.613309947934</v>
+        <v>2328.569851204381</v>
       </c>
       <c r="V31" t="n">
-        <v>1758.682462716484</v>
+        <v>2041.614343074811</v>
       </c>
       <c r="W31" t="n">
-        <v>1511.680719200895</v>
+        <v>1769.587938661103</v>
       </c>
       <c r="X31" t="n">
-        <v>1291.313625432426</v>
+        <v>1524.196183994515</v>
       </c>
       <c r="Y31" t="n">
-        <v>1088.918615644654</v>
+        <v>1296.776513308624</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1416.503837998523</v>
+        <v>1795.567036989589</v>
       </c>
       <c r="C32" t="n">
-        <v>1003.386026080066</v>
+        <v>1357.424564173013</v>
       </c>
       <c r="D32" t="n">
-        <v>592.5009021526294</v>
+        <v>921.5147793474571</v>
       </c>
       <c r="E32" t="n">
-        <v>183.7508182090437</v>
+        <v>487.7400345057522</v>
       </c>
       <c r="F32" t="n">
-        <v>52.21199443594385</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="G32" t="n">
-        <v>52.21199443594385</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="H32" t="n">
-        <v>52.21199443594385</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I32" t="n">
-        <v>147.9386148333711</v>
+        <v>131.0725551661405</v>
       </c>
       <c r="J32" t="n">
-        <v>330.112060223063</v>
+        <v>723.9740178625037</v>
       </c>
       <c r="K32" t="n">
-        <v>590.9103807485305</v>
+        <v>960.2456682417247</v>
       </c>
       <c r="L32" t="n">
-        <v>908.5529257586778</v>
+        <v>1253.361543105625</v>
       </c>
       <c r="M32" t="n">
-        <v>1259.227484073712</v>
+        <v>1579.509431274412</v>
       </c>
       <c r="N32" t="n">
-        <v>1615.179456196436</v>
+        <v>1910.93473325089</v>
       </c>
       <c r="O32" t="n">
-        <v>1952.661640883975</v>
+        <v>2223.890247792182</v>
       </c>
       <c r="P32" t="n">
-        <v>2244.28860220949</v>
+        <v>2490.990538971451</v>
       </c>
       <c r="Q32" t="n">
-        <v>2469.396467366805</v>
+        <v>2876.953661463856</v>
       </c>
       <c r="R32" t="n">
-        <v>2610.599721797193</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="S32" t="n">
-        <v>2595.158012910109</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="T32" t="n">
-        <v>2595.158012910109</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="U32" t="n">
-        <v>2595.158012910109</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="V32" t="n">
-        <v>2595.158012910109</v>
+        <v>2631.013295681823</v>
       </c>
       <c r="W32" t="n">
-        <v>2595.158012910109</v>
+        <v>2226.157841092857</v>
       </c>
       <c r="X32" t="n">
-        <v>2201.040210387539</v>
+        <v>2221.866607474497</v>
       </c>
       <c r="Y32" t="n">
-        <v>1817.778747585312</v>
+        <v>2221.866607474497</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>547.5767479533799</v>
+        <v>555.2373584323959</v>
       </c>
       <c r="C33" t="n">
-        <v>441.1202867900222</v>
+        <v>448.7808972690382</v>
       </c>
       <c r="D33" t="n">
-        <v>346.0299979365755</v>
+        <v>353.6906084155915</v>
       </c>
       <c r="E33" t="n">
-        <v>251.9095832635292</v>
+        <v>259.5701937425452</v>
       </c>
       <c r="F33" t="n">
-        <v>168.5257448796908</v>
+        <v>176.1863553587068</v>
       </c>
       <c r="G33" t="n">
-        <v>84.1546444693476</v>
+        <v>91.81525494836369</v>
       </c>
       <c r="H33" t="n">
-        <v>52.21199443594385</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="I33" t="n">
-        <v>86.42873060741998</v>
+        <v>94.08934108643605</v>
       </c>
       <c r="J33" t="n">
-        <v>180.3220699538871</v>
+        <v>187.9826804329032</v>
       </c>
       <c r="K33" t="n">
-        <v>340.8007420080574</v>
+        <v>348.4613524870734</v>
       </c>
       <c r="L33" t="n">
-        <v>556.5841208830797</v>
+        <v>564.2447313620958</v>
       </c>
       <c r="M33" t="n">
-        <v>808.3931461857771</v>
+        <v>816.0537566647931</v>
       </c>
       <c r="N33" t="n">
-        <v>1066.866807107097</v>
+        <v>1074.527417586113</v>
       </c>
       <c r="O33" t="n">
-        <v>1303.319709921628</v>
+        <v>1310.980320400644</v>
       </c>
       <c r="P33" t="n">
-        <v>1493.094010486434</v>
+        <v>1500.75462096545</v>
       </c>
       <c r="Q33" t="n">
-        <v>1619.953104694668</v>
+        <v>1627.613715173684</v>
       </c>
       <c r="R33" t="n">
-        <v>1681.656559120581</v>
+        <v>1689.317169599597</v>
       </c>
       <c r="S33" t="n">
-        <v>1637.035528520315</v>
+        <v>1644.696138999331</v>
       </c>
       <c r="T33" t="n">
-        <v>1510.943973395968</v>
+        <v>1518.604583874984</v>
       </c>
       <c r="U33" t="n">
-        <v>1334.674136219849</v>
+        <v>1342.334746698865</v>
       </c>
       <c r="V33" t="n">
-        <v>1135.556618281848</v>
+        <v>1143.217228760864</v>
       </c>
       <c r="W33" t="n">
-        <v>950.2338640150424</v>
+        <v>957.8944744940584</v>
       </c>
       <c r="X33" t="n">
-        <v>795.3664282539223</v>
+        <v>803.0270387329383</v>
       </c>
       <c r="Y33" t="n">
-        <v>668.8806490331431</v>
+        <v>676.5412595121591</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>922.124657823786</v>
+        <v>1104.957894589636</v>
       </c>
       <c r="C34" t="n">
-        <v>774.5876072051301</v>
+        <v>932.3961830728613</v>
       </c>
       <c r="D34" t="n">
-        <v>633.734275304772</v>
+        <v>766.5181902743841</v>
       </c>
       <c r="E34" t="n">
-        <v>489.0009324536285</v>
+        <v>596.7601865251213</v>
       </c>
       <c r="F34" t="n">
-        <v>337.3185393135039</v>
+        <v>420.0531324868775</v>
       </c>
       <c r="G34" t="n">
-        <v>197.6020198241415</v>
+        <v>255.311952099396</v>
       </c>
       <c r="H34" t="n">
-        <v>90.28262010157658</v>
+        <v>122.9678914787119</v>
       </c>
       <c r="I34" t="n">
-        <v>52.21199443594385</v>
+        <v>59.87260491495994</v>
       </c>
       <c r="J34" t="n">
-        <v>222.2240134490634</v>
+        <v>205.3579537818329</v>
       </c>
       <c r="K34" t="n">
-        <v>618.3092387340039</v>
+        <v>576.9165089205267</v>
       </c>
       <c r="L34" t="n">
-        <v>1184.916592266509</v>
+        <v>1118.997192306786</v>
       </c>
       <c r="M34" t="n">
-        <v>1340.047654751285</v>
+        <v>1249.601584645315</v>
       </c>
       <c r="N34" t="n">
-        <v>1492.073236701422</v>
+        <v>1753.488026254673</v>
       </c>
       <c r="O34" t="n">
-        <v>1834.312622438672</v>
+        <v>2290.923156828216</v>
       </c>
       <c r="P34" t="n">
-        <v>2307.115242732944</v>
+        <v>2739.199106976242</v>
       </c>
       <c r="Q34" t="n">
-        <v>2569.601958974179</v>
+        <v>2977.159153071229</v>
       </c>
       <c r="R34" t="n">
-        <v>2610.599721797193</v>
+        <v>2993.630245747997</v>
       </c>
       <c r="S34" t="n">
-        <v>2491.197844199546</v>
+        <v>2849.203707252232</v>
       </c>
       <c r="T34" t="n">
-        <v>2273.975281001072</v>
+        <v>2606.956483155638</v>
       </c>
       <c r="U34" t="n">
-        <v>2020.613309947934</v>
+        <v>2328.569851204381</v>
       </c>
       <c r="V34" t="n">
-        <v>1758.682462716484</v>
+        <v>2041.614343074811</v>
       </c>
       <c r="W34" t="n">
-        <v>1511.680719200895</v>
+        <v>1769.587938661103</v>
       </c>
       <c r="X34" t="n">
-        <v>1291.313625432426</v>
+        <v>1524.196183994515</v>
       </c>
       <c r="Y34" t="n">
-        <v>1088.918615644654</v>
+        <v>1296.776513308624</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1111.538649977947</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="C35" t="n">
-        <v>1111.538649977947</v>
+        <v>1710.413853100273</v>
       </c>
       <c r="D35" t="n">
-        <v>700.6535260505107</v>
+        <v>1274.504068274717</v>
       </c>
       <c r="E35" t="n">
-        <v>291.9034421069251</v>
+        <v>840.7293234330123</v>
       </c>
       <c r="F35" t="n">
-        <v>291.9034421069251</v>
+        <v>412.86189384222</v>
       </c>
       <c r="G35" t="n">
-        <v>291.9034421069251</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N35" t="n">
         <v>1463.013992431967</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q35" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R35" t="n">
         <v>2360.327577447737</v>
@@ -6967,22 +6967,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2173.580986814968</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>1939.534956234601</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V35" t="n">
-        <v>1601.942667066547</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W35" t="n">
-        <v>1505.656452500517</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X35" t="n">
-        <v>1111.538649977947</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="Y35" t="n">
-        <v>1111.538649977947</v>
+        <v>2148.556325916849</v>
       </c>
     </row>
     <row r="36">
@@ -6995,22 +6995,22 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D36" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E36" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F36" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G36" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H36" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I36" t="n">
         <v>81.42328772043086</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>671.8525134743297</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="C37" t="n">
-        <v>524.3154628556738</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D37" t="n">
-        <v>383.4621309553157</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E37" t="n">
-        <v>238.7287881041721</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F37" t="n">
-        <v>87.04639496404752</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J37" t="n">
-        <v>217.2185705620743</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>613.3037958470147</v>
+        <v>289.4920009833859</v>
       </c>
       <c r="L37" t="n">
-        <v>1179.91114937952</v>
+        <v>831.5726843696448</v>
       </c>
       <c r="M37" t="n">
-        <v>1335.042211864296</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N37" t="n">
-        <v>1487.067793814432</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O37" t="n">
-        <v>1629.360345308441</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2056.843098383488</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q37" t="n">
-        <v>2319.329814624723</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R37" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2240.92569985009</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T37" t="n">
-        <v>2023.703136651616</v>
+        <v>1980.897616421834</v>
       </c>
       <c r="U37" t="n">
-        <v>1770.341165598478</v>
+        <v>1702.510984470577</v>
       </c>
       <c r="V37" t="n">
-        <v>1508.410318367028</v>
+        <v>1415.555476341008</v>
       </c>
       <c r="W37" t="n">
-        <v>1261.408574851439</v>
+        <v>1143.529071927299</v>
       </c>
       <c r="X37" t="n">
-        <v>1041.04148108297</v>
+        <v>1143.529071927299</v>
       </c>
       <c r="Y37" t="n">
-        <v>838.6464712951977</v>
+        <v>916.1094012414073</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1299.478134179487</v>
+        <v>701.7439652528263</v>
       </c>
       <c r="C38" t="n">
-        <v>1299.478134179487</v>
+        <v>263.6014924362497</v>
       </c>
       <c r="D38" t="n">
-        <v>1299.478134179487</v>
+        <v>263.6014924362497</v>
       </c>
       <c r="E38" t="n">
-        <v>868.6611503786116</v>
+        <v>263.6014924362497</v>
       </c>
       <c r="F38" t="n">
-        <v>443.7514818286485</v>
+        <v>263.6014924362497</v>
       </c>
       <c r="G38" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J38" t="n">
         <v>276.0532770435806</v>
@@ -7192,7 +7192,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7201,25 +7201,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2322.818968703364</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T38" t="n">
-        <v>2114.005478213305</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U38" t="n">
-        <v>2114.005478213305</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="V38" t="n">
-        <v>2114.005478213305</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="W38" t="n">
-        <v>2114.005478213305</v>
+        <v>1955.47212285877</v>
       </c>
       <c r="X38" t="n">
-        <v>1697.820775833444</v>
+        <v>1536.329659438081</v>
       </c>
       <c r="Y38" t="n">
-        <v>1697.820775833444</v>
+        <v>1128.043535737734</v>
       </c>
     </row>
     <row r="39">
@@ -7247,7 +7247,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
         <v>81.42328772043086</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>720.2802694883974</v>
+        <v>625.4485964662028</v>
       </c>
       <c r="C40" t="n">
-        <v>550.6763190124514</v>
+        <v>452.8868849494278</v>
       </c>
       <c r="D40" t="n">
-        <v>387.7560872548031</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="E40" t="n">
-        <v>220.9558445463695</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F40" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G40" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H40" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>195.5908020119443</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K40" t="n">
-        <v>570.0482587467548</v>
+        <v>465.6045913582042</v>
       </c>
       <c r="L40" t="n">
-        <v>1115.02784372913</v>
+        <v>1007.685274744463</v>
       </c>
       <c r="M40" t="n">
-        <v>1397.861187395723</v>
+        <v>1138.289667082993</v>
       </c>
       <c r="N40" t="n">
-        <v>1528.259000795729</v>
+        <v>1708.047382044527</v>
       </c>
       <c r="O40" t="n">
-        <v>1648.923783739608</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P40" t="n">
-        <v>2100.098635483749</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
-        <v>2340.957583174853</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>2204.532291809424</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U40" t="n">
-        <v>1929.103420898996</v>
+        <v>1849.060553080947</v>
       </c>
       <c r="V40" t="n">
-        <v>1645.105673810256</v>
+        <v>1562.105044951378</v>
       </c>
       <c r="W40" t="n">
-        <v>1376.037030437376</v>
+        <v>1290.078640537669</v>
       </c>
       <c r="X40" t="n">
-        <v>1133.603036811618</v>
+        <v>1044.686885871082</v>
       </c>
       <c r="Y40" t="n">
-        <v>909.1411271665554</v>
+        <v>817.26721518519</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>716.4307943255673</v>
+        <v>1743.700871327883</v>
       </c>
       <c r="C41" t="n">
-        <v>716.4307943255673</v>
+        <v>1305.558398511306</v>
       </c>
       <c r="D41" t="n">
-        <v>716.4307943255673</v>
+        <v>869.6486136857504</v>
       </c>
       <c r="E41" t="n">
-        <v>716.4307943255673</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255673</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050444</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867027</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
         <v>1463.013992431967</v>
@@ -7429,7 +7429,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163597</v>
@@ -7441,22 +7441,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T41" t="n">
-        <v>2148.55632591685</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U41" t="n">
-        <v>1889.485634438364</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V41" t="n">
-        <v>1526.86868437219</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W41" t="n">
-        <v>1122.013229783223</v>
+        <v>1743.700871327883</v>
       </c>
       <c r="X41" t="n">
-        <v>1122.013229783223</v>
+        <v>1743.700871327883</v>
       </c>
       <c r="Y41" t="n">
-        <v>1122.013229783223</v>
+        <v>1743.700871327883</v>
       </c>
     </row>
     <row r="42">
@@ -7472,19 +7472,19 @@
         <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E42" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G42" t="n">
         <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
         <v>81.42328772043086</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.655226289377</v>
+        <v>795.2066002154656</v>
       </c>
       <c r="C43" t="n">
-        <v>471.655226289377</v>
+        <v>622.6448886986906</v>
       </c>
       <c r="D43" t="n">
-        <v>305.7772334908997</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E43" t="n">
-        <v>136.0192297416369</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>688.1212571728194</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M43" t="n">
-        <v>1272.302332591134</v>
+        <v>910.9641928553089</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180195</v>
+        <v>1480.721907816843</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527957</v>
+        <v>2018.157038390386</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675982</v>
+        <v>2118.926094568069</v>
       </c>
       <c r="Q43" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X43" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1355.033554032792</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="C44" t="n">
-        <v>916.8910812162151</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="D44" t="n">
-        <v>480.9812963906596</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="E44" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F44" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G44" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435814</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228024</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867029</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N44" t="n">
         <v>1463.013992431967</v>
@@ -7666,34 +7666,34 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q44" t="n">
-        <v>2243.650993163597</v>
+        <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662535</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T44" t="n">
-        <v>2319.861207662535</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U44" t="n">
-        <v>2319.861207662535</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V44" t="n">
-        <v>2319.861207662535</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W44" t="n">
-        <v>2319.861207662535</v>
+        <v>1081.54685999802</v>
       </c>
       <c r="X44" t="n">
-        <v>2189.619248218046</v>
+        <v>662.4043965773309</v>
       </c>
       <c r="Y44" t="n">
-        <v>1781.3331245177</v>
+        <v>254.1182728769843</v>
       </c>
     </row>
     <row r="45">
@@ -7721,7 +7721,7 @@
         <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
         <v>81.42328772043086</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>616.0817647851425</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C46" t="n">
-        <v>443.5200532683674</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D46" t="n">
-        <v>393.6716093364613</v>
+        <v>280.0598418619694</v>
       </c>
       <c r="E46" t="n">
-        <v>223.9136055871986</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="F46" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G46" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H46" t="n">
-        <v>47.20655154895475</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895475</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K46" t="n">
-        <v>289.4920009833859</v>
+        <v>477.6707703898317</v>
       </c>
       <c r="L46" t="n">
-        <v>481.9462364092382</v>
+        <v>1019.751453776091</v>
       </c>
       <c r="M46" t="n">
-        <v>1066.127311827553</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N46" t="n">
-        <v>1635.885026789087</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.320157362631</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q46" t="n">
-        <v>2343.85648477097</v>
+        <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351144</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399887</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W46" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X46" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y46" t="n">
-        <v>807.9003835041296</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
   </sheetData>
@@ -8856,7 +8856,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>150.8384340726725</v>
+        <v>59.7293082316562</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -9084,7 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>0.8089956155386204</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>442.9351860730619</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -9102,7 +9102,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q16" t="n">
         <v>169.8916917821538</v>
@@ -9324,19 +9324,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>314.5904786336153</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>445.1068461021788</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>150.8384340726725</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>150.8384340726725</v>
+        <v>59.7293082316562</v>
       </c>
       <c r="P22" t="n">
         <v>351.0170646165068</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>296.6452305048654</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9807,10 +9807,10 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>62.98040253500949</v>
       </c>
       <c r="O25" t="n">
-        <v>201.9664992355983</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>81.10537790171048</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9895,7 +9895,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>545.8002937490523</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10038,16 +10038,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>200.4923906923448</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512944</v>
+        <v>315.6807984451041</v>
       </c>
       <c r="P28" t="n">
         <v>351.0170646165068</v>
@@ -10114,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>456.0429799810084</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10272,13 +10272,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>118.7543468319216</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -10290,7 +10290,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>4.217953603099431</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>187.2544722033713</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -10518,10 +10518,10 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>380.1894240459278</v>
       </c>
       <c r="O34" t="n">
-        <v>201.9664992355979</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10746,25 +10746,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>105.0002374943217</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>305.2394209607241</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,16 +10983,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>177.8915054291094</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>150.8384340726734</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -11001,7 +11001,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N43" t="n">
-        <v>141.468043217345</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>156.730423204287</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>69.27619576520635</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371572</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>10.62967161639972</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,25 +23257,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>193.7685032219425</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>430.8328646579901</v>
+        <v>420.7096284534327</v>
       </c>
       <c r="D11" t="n">
-        <v>428.622503546879</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>426.5088139628669</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.6605718644635</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>392.5794809768967</v>
+        <v>165.0358943189015</v>
       </c>
       <c r="H11" t="n">
-        <v>264.0961525111078</v>
+        <v>253.9729163065505</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,19 +23311,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>50.70152525622292</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>172.0118000674405</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>160.1655851531859</v>
+        <v>150.0423489486286</v>
       </c>
       <c r="H13" t="n">
-        <v>128.0924365840564</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>59.53615026769357</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>56.52255096755607</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>212.0940543440546</v>
       </c>
     </row>
     <row r="14">
@@ -23497,22 +23497,22 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>430.8328646579901</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>428.622503546879</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>426.5088139628669</v>
+        <v>416.3855777583096</v>
       </c>
       <c r="F14" t="n">
-        <v>420.6605718644635</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>88.93730482347127</v>
+        <v>382.4562447723394</v>
       </c>
       <c r="H14" t="n">
-        <v>264.0961525111078</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>37.13352265693013</v>
+        <v>27.01028645237279</v>
       </c>
       <c r="T14" t="n">
-        <v>206.725355585158</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.5518011332803</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>210.4684494764638</v>
       </c>
     </row>
     <row r="15">
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>121.3459863417746</v>
       </c>
       <c r="H16" t="n">
-        <v>16.67514550942276</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>49.41291406313623</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,16 +23703,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>272.6745822013236</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>281.157769617853</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>419.1083913496379</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>73.31057188041001</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>187.0267678707614</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>382.4562447723394</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>253.9729163065505</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23782,25 +23782,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>37.13352265693018</v>
+        <v>27.01028645237279</v>
       </c>
       <c r="T17" t="n">
-        <v>206.7253555851581</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U17" t="n">
-        <v>253.5518011332803</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V17" t="n">
-        <v>356.0625971350909</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W17" t="n">
-        <v>397.8787166126562</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X17" t="n">
-        <v>412.0228553560616</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2750790329223</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="18">
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>165.1322402813493</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>160.1655851531859</v>
+        <v>121.3459863417746</v>
       </c>
       <c r="H19" t="n">
-        <v>128.0924365840564</v>
+        <v>117.969200379499</v>
       </c>
       <c r="I19" t="n">
-        <v>59.53615026769361</v>
+        <v>49.41291406313623</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>57.58108504231424</v>
+        <v>129.9308534758296</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>156.6349805650128</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>430.8328646579901</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>428.6225035468791</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>426.508813962867</v>
+        <v>187.0267678707615</v>
       </c>
       <c r="F20" t="n">
-        <v>420.6605718644635</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>392.5794809768968</v>
+        <v>382.4562447723394</v>
       </c>
       <c r="H20" t="n">
-        <v>264.0961525111078</v>
+        <v>253.9729163065505</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>37.13352265693018</v>
+        <v>27.01028645237279</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>196.6021193806007</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>345.9393609305336</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>387.7554804080988</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>391.1518428283649</v>
       </c>
     </row>
     <row r="21">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>176.849012896819</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>157.7846747666291</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>84.02526659679144</v>
       </c>
       <c r="H22" t="n">
-        <v>67.13243716213512</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>281.157769617853</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.217290548612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>397.2621604909207</v>
+        <v>408.9851551450805</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>370.7332501181796</v>
+        <v>382.4562447723394</v>
       </c>
       <c r="H23" t="n">
-        <v>242.2499216523906</v>
+        <v>253.9729163065505</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>243.428564928723</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>305.9421293139077</v>
       </c>
       <c r="W23" t="n">
-        <v>228.5568193392239</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>390.1766244973444</v>
+        <v>401.8996191515042</v>
       </c>
       <c r="Y23" t="n">
-        <v>379.4288481742051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24442,10 +24442,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>397.2621604909206</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>408.9866337992729</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>334.1132505003733</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>15.28729179821294</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>334.2163662763737</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>376.0324857539389</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>390.1766244973443</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>86.44606165620058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,22 +24679,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>54.84792965042334</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>406.7762726881619</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>404.6625831041497</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>15.28729179821298</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
-        <v>184.8791247264409</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U29" t="n">
-        <v>231.7055702745632</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>334.2163662763737</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>376.032485753939</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>226.1326930407083</v>
       </c>
     </row>
     <row r="30">
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>268.5909054703775</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>370.7332501181796</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>242.2499216523906</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>184.8791247264409</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>231.7055702745632</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
-        <v>334.2163662763737</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>376.032485753939</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>410.7027175043061</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>397.2621604909207</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>408.9866337992729</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>398.8143410057463</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>370.7332501181796</v>
+        <v>33.50887553698499</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>15.28729179821297</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>280.7091333335694</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>379.4288481742051</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.87790931352689</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>106.2462057253392</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
-        <v>37.68991940897641</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>7.17136355079117</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>24.74917611222037</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>430.8328646579901</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>428.6225035468791</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>181.2766729288956</v>
       </c>
       <c r="H38" t="n">
-        <v>264.0961525111078</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>253.5518011332804</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>356.0625971350909</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>397.8787166126562</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2750790329223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25557,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>160.165585153186</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H40" t="n">
-        <v>128.0924365840565</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>59.53615026769363</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>140.054089680387</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>82.65923564327622</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>152.2554364750576</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>20.50996367697928</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.761048088411</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869773</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>38.80811117274436</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.06170608735106</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>177.3335870760203</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>87.01543208710598</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>163.0937685836068</v>
@@ -25806,7 +25806,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>217.1939706653095</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -25918,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>286.0114989364391</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>114.8692533779055</v>
+        <v>145.3758766889663</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>163.0937685836068</v>
@@ -26043,7 +26043,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>275266.5031960786</v>
+        <v>285949.7568274719</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>275266.5031960785</v>
+        <v>285949.7568274719</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>275266.5031960785</v>
+        <v>285949.756827472</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>275266.5031960785</v>
+        <v>285949.756827472</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>321864.563892838</v>
+        <v>340120.4632473624</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>321864.5638928381</v>
+        <v>360445.0825378163</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>321864.5638928381</v>
+        <v>360445.0825378163</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>321864.5638928381</v>
+        <v>360445.0825378163</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>298321.2675458999</v>
+        <v>272176.3326582867</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>275266.5031960785</v>
+        <v>272176.3326582867</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>272176.3326582867</v>
+        <v>272176.3326582868</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>497215.4012453021</v>
+        <v>497215.4012453022</v>
       </c>
       <c r="C2" t="n">
         <v>497215.4012453022</v>
@@ -26322,37 +26322,37 @@
         <v>497215.4012453022</v>
       </c>
       <c r="E2" t="n">
-        <v>302966.8334388749</v>
+        <v>317146.2479258743</v>
       </c>
       <c r="F2" t="n">
-        <v>302966.8334388749</v>
+        <v>317146.2479258743</v>
       </c>
       <c r="G2" t="n">
-        <v>302966.8334388749</v>
+        <v>317146.2479258742</v>
       </c>
       <c r="H2" t="n">
-        <v>302966.8334388749</v>
+        <v>317146.2479258742</v>
       </c>
       <c r="I2" t="n">
-        <v>357464.1693484194</v>
+        <v>358350.6622041669</v>
       </c>
       <c r="J2" t="n">
-        <v>357464.1693484194</v>
+        <v>359337.6105569641</v>
       </c>
       <c r="K2" t="n">
-        <v>357464.1693484194</v>
+        <v>359337.6105569641</v>
       </c>
       <c r="L2" t="n">
-        <v>357464.1693484194</v>
+        <v>359337.6105569641</v>
       </c>
       <c r="M2" t="n">
-        <v>333566.412078063</v>
+        <v>298865.3854715529</v>
       </c>
       <c r="N2" t="n">
-        <v>302966.833438875</v>
+        <v>298865.385471553</v>
       </c>
       <c r="O2" t="n">
-        <v>298865.3854715529</v>
+        <v>298865.385471553</v>
       </c>
       <c r="P2" t="n">
         <v>298865.385471553</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>553477.7477350124</v>
+        <v>561576.3366986583</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>34115.13941136169</v>
+        <v>28687.43758396135</v>
       </c>
       <c r="J3" t="n">
-        <v>2342.546744336698</v>
+        <v>13198.92408385218</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>131458.563537456</v>
+        <v>107595.3788647969</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
-        <v>23429.49116638309</v>
+        <v>31939.33320490289</v>
       </c>
       <c r="F4" t="n">
-        <v>23429.49116638309</v>
+        <v>31939.33320490288</v>
       </c>
       <c r="G4" t="n">
-        <v>23429.49116638305</v>
+        <v>31939.33320490288</v>
       </c>
       <c r="H4" t="n">
-        <v>23429.49116638305</v>
+        <v>31939.33320490289</v>
       </c>
       <c r="I4" t="n">
-        <v>56507.11457938178</v>
+        <v>57407.62528182537</v>
       </c>
       <c r="J4" t="n">
-        <v>56507.11457938173</v>
+        <v>58410.17995408309</v>
       </c>
       <c r="K4" t="n">
-        <v>56507.11457938173</v>
+        <v>58410.17995408309</v>
       </c>
       <c r="L4" t="n">
-        <v>56507.11457938174</v>
+        <v>58410.17995408311</v>
       </c>
       <c r="M4" t="n">
-        <v>41793.97165346552</v>
+        <v>20967.98795247263</v>
       </c>
       <c r="N4" t="n">
-        <v>23429.49116638305</v>
+        <v>20967.98795247263</v>
       </c>
       <c r="O4" t="n">
-        <v>20967.98795247264</v>
+        <v>20967.98795247263</v>
       </c>
       <c r="P4" t="n">
         <v>20967.98795247263</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46297.25066244987</v>
+        <v>47148.30100693079</v>
       </c>
       <c r="F5" t="n">
-        <v>46297.25066244987</v>
+        <v>47148.30100693079</v>
       </c>
       <c r="G5" t="n">
-        <v>46297.25066244987</v>
+        <v>47148.30100693079</v>
       </c>
       <c r="H5" t="n">
-        <v>46297.25066244987</v>
+        <v>47148.30100693079</v>
       </c>
       <c r="I5" t="n">
-        <v>51937.9780386231</v>
+        <v>53707.37759398052</v>
       </c>
       <c r="J5" t="n">
-        <v>51937.97803862309</v>
+        <v>55677.28176780177</v>
       </c>
       <c r="K5" t="n">
-        <v>51937.97803862309</v>
+        <v>55677.28176780177</v>
       </c>
       <c r="L5" t="n">
-        <v>51937.97803862309</v>
+        <v>55677.28176780177</v>
       </c>
       <c r="M5" t="n">
-        <v>48133.84144451136</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="N5" t="n">
-        <v>46297.25066244988</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963783</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>164857.0849334693</v>
+        <v>164825.1782159678</v>
       </c>
       <c r="C6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159678</v>
       </c>
       <c r="D6" t="n">
-        <v>164857.0849334694</v>
+        <v>164825.1782159677</v>
       </c>
       <c r="E6" t="n">
-        <v>-320237.6561249705</v>
+        <v>-324023.4958950651</v>
       </c>
       <c r="F6" t="n">
-        <v>233240.091610042</v>
+        <v>237552.8408035932</v>
       </c>
       <c r="G6" t="n">
-        <v>233240.091610042</v>
+        <v>237552.8408035931</v>
       </c>
       <c r="H6" t="n">
-        <v>233240.091610042</v>
+        <v>237552.8408035931</v>
       </c>
       <c r="I6" t="n">
-        <v>214903.9373190528</v>
+        <v>218150.8815031057</v>
       </c>
       <c r="J6" t="n">
-        <v>246676.5299860779</v>
+        <v>231656.4817424404</v>
       </c>
       <c r="K6" t="n">
-        <v>249019.0767304146</v>
+        <v>244855.4058262926</v>
       </c>
       <c r="L6" t="n">
-        <v>249019.0767304146</v>
+        <v>244855.4058262926</v>
       </c>
       <c r="M6" t="n">
-        <v>112180.0354426301</v>
+        <v>123697.0570014236</v>
       </c>
       <c r="N6" t="n">
-        <v>233240.0916100421</v>
+        <v>231292.4358662206</v>
       </c>
       <c r="O6" t="n">
-        <v>231846.3163094425</v>
+        <v>231292.4358662206</v>
       </c>
       <c r="P6" t="n">
-        <v>231846.3163094426</v>
+        <v>231292.4358662206</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F2" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G2" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H2" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I2" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J2" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26749,7 +26749,7 @@
         <v>466.7019280932212</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.7019280932211</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932212</v>
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="F4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="G4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="H4" t="n">
+        <v>590.0818943619341</v>
+      </c>
+      <c r="I4" t="n">
+        <v>697.9614434910415</v>
+      </c>
+      <c r="J4" t="n">
+        <v>748.4075614369992</v>
+      </c>
+      <c r="K4" t="n">
+        <v>748.4075614369992</v>
+      </c>
+      <c r="L4" t="n">
+        <v>748.4075614369992</v>
+      </c>
+      <c r="M4" t="n">
         <v>590.0818943619342</v>
       </c>
-      <c r="F4" t="n">
+      <c r="N4" t="n">
         <v>590.0818943619342</v>
       </c>
-      <c r="G4" t="n">
+      <c r="O4" t="n">
         <v>590.0818943619342</v>
       </c>
-      <c r="H4" t="n">
+      <c r="P4" t="n">
         <v>590.0818943619342</v>
-      </c>
-      <c r="I4" t="n">
-        <v>652.6499304492983</v>
-      </c>
-      <c r="J4" t="n">
-        <v>652.6499304492982</v>
-      </c>
-      <c r="K4" t="n">
-        <v>652.6499304492982</v>
-      </c>
-      <c r="L4" t="n">
-        <v>652.6499304492982</v>
-      </c>
-      <c r="M4" t="n">
-        <v>590.0818943619341</v>
-      </c>
-      <c r="N4" t="n">
-        <v>590.0818943619344</v>
-      </c>
-      <c r="O4" t="n">
-        <v>590.0818943619344</v>
-      </c>
-      <c r="P4" t="n">
-        <v>590.0818943619344</v>
       </c>
     </row>
   </sheetData>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26928,10 +26928,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>21.8462308587172</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.928183430420873</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>62.56803608736402</v>
+        <v>107.8795491291073</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>50.44611794595778</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>527.5138582745703</v>
+        <v>431.7562272868691</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27165,10 +27165,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>21.8462308587172</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.928183430420873</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28089,25 +28089,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C11" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D11" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E11" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F11" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G11" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H11" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28140,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T11" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U11" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V11" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W11" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X11" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y11" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="12">
@@ -28247,76 +28247,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="K13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="L13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="M13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="N13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="O13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="P13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="R13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="S13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="14">
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C14" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D14" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E14" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F14" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G14" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H14" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T14" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U14" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V14" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W14" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X14" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="K16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="L16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="M16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="N16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="O16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="P16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="R16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="S16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y16" t="n">
-        <v>2.928183430420862</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="17">
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C17" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D17" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E17" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F17" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G17" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H17" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T17" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U17" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V17" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W17" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X17" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y17" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="K19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="L19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="M19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="N19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="O19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="P19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="R19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="S19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y19" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C20" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D20" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E20" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F20" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G20" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H20" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T20" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U20" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V20" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W20" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X20" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y20" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="K22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="L22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="M22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="N22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="O22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="P22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="R22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="S22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y22" t="n">
-        <v>2.92818343042082</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="23">
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="K23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="L23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="M23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="N23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="O23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="P23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Q23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="R23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="S23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y23" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="C25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="D25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="E25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="F25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="G25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="H25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="I25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="J25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="K25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="L25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="M25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="N25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="O25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="P25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="R25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="S25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="T25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="U25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="V25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="W25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="X25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.77441428913802</v>
+        <v>13.0514196349782</v>
       </c>
     </row>
     <row r="26">
@@ -29274,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.77441428913805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -29511,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.77441428913802</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30222,25 +30222,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.928183430420805</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -33523,7 +33523,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
@@ -33733,7 +33733,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916782</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -33918,7 +33918,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405469</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
         <v>42.75364899065037</v>
@@ -33988,7 +33988,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917233</v>
@@ -34225,7 +34225,7 @@
         <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
         <v>191.6912126917233</v>
@@ -34392,7 +34392,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S44" t="n">
         <v>42.75364899065037</v>
@@ -35412,19 +35412,19 @@
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
         <v>269.7982739184536</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J12" t="n">
         <v>94.84175691562339</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>149.8830812757471</v>
+        <v>160.0063174803044</v>
       </c>
       <c r="K13" t="n">
-        <v>378.2398552876873</v>
+        <v>388.3630914922446</v>
       </c>
       <c r="L13" t="n">
-        <v>550.4844292751269</v>
+        <v>560.6076654796842</v>
       </c>
       <c r="M13" t="n">
-        <v>285.6902461278705</v>
+        <v>204.7043564914115</v>
       </c>
       <c r="N13" t="n">
-        <v>131.7149630303093</v>
+        <v>141.8381992348666</v>
       </c>
       <c r="O13" t="n">
-        <v>121.8836191352307</v>
+        <v>132.006855339788</v>
       </c>
       <c r="P13" t="n">
-        <v>455.7321734789311</v>
+        <v>465.8554096834885</v>
       </c>
       <c r="Q13" t="n">
-        <v>243.2918663546511</v>
+        <v>253.4151025592082</v>
       </c>
       <c r="R13" t="n">
-        <v>19.56565078069101</v>
+        <v>29.68888698524835</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,28 +35643,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.7730322994719</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J15" t="n">
         <v>94.84175691562339</v>
@@ -35737,7 +35737,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742734</v>
@@ -35804,31 +35804,31 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>62.42885383666646</v>
+        <v>73.36108565676241</v>
       </c>
       <c r="K16" t="n">
-        <v>100.7060627915908</v>
+        <v>110.8292989961481</v>
       </c>
       <c r="L16" t="n">
-        <v>550.4844292751269</v>
+        <v>560.6076654796842</v>
       </c>
       <c r="M16" t="n">
-        <v>577.7869981282599</v>
+        <v>144.9750482597555</v>
       </c>
       <c r="N16" t="n">
-        <v>131.7149630303093</v>
+        <v>141.8381992348667</v>
       </c>
       <c r="O16" t="n">
-        <v>545.7919516865252</v>
+        <v>555.9151878910825</v>
       </c>
       <c r="P16" t="n">
-        <v>104.7151088624244</v>
+        <v>465.8554096834885</v>
       </c>
       <c r="Q16" t="n">
-        <v>243.2918663546511</v>
+        <v>253.4151025592082</v>
       </c>
       <c r="R16" t="n">
-        <v>19.56565078069101</v>
+        <v>29.68888698524835</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M17" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
         <v>269.7982739184536</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J18" t="n">
         <v>94.84175691562339</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>149.8830812757471</v>
+        <v>160.0063174803044</v>
       </c>
       <c r="K19" t="n">
-        <v>378.2398552876873</v>
+        <v>110.8292989961481</v>
       </c>
       <c r="L19" t="n">
-        <v>550.4844292751269</v>
+        <v>452.7639201052581</v>
       </c>
       <c r="M19" t="n">
-        <v>134.851812055198</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N19" t="n">
-        <v>131.7149630303093</v>
+        <v>141.8381992348666</v>
       </c>
       <c r="O19" t="n">
-        <v>272.7220532079032</v>
+        <v>132.006855339788</v>
       </c>
       <c r="P19" t="n">
-        <v>455.7321734789311</v>
+        <v>465.8554096834885</v>
       </c>
       <c r="Q19" t="n">
-        <v>243.2918663546511</v>
+        <v>253.4151025592082</v>
       </c>
       <c r="R19" t="n">
-        <v>19.56565078069097</v>
+        <v>29.68888698524835</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J21" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K21" t="n">
         <v>162.0996687415861</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>149.8830812757471</v>
+        <v>160.0063174803044</v>
       </c>
       <c r="K22" t="n">
-        <v>378.2398552876873</v>
+        <v>388.3630914922446</v>
       </c>
       <c r="L22" t="n">
-        <v>550.4844292751269</v>
+        <v>560.6076654796842</v>
       </c>
       <c r="M22" t="n">
-        <v>134.851812055198</v>
+        <v>144.9750482597553</v>
       </c>
       <c r="N22" t="n">
-        <v>131.7149630303093</v>
+        <v>141.8381992348666</v>
       </c>
       <c r="O22" t="n">
-        <v>272.7220532079032</v>
+        <v>191.7361635714442</v>
       </c>
       <c r="P22" t="n">
-        <v>455.7321734789311</v>
+        <v>465.8554096834885</v>
       </c>
       <c r="Q22" t="n">
-        <v>243.2918663546511</v>
+        <v>253.4151025592082</v>
       </c>
       <c r="R22" t="n">
-        <v>19.56565078069097</v>
+        <v>29.68888698524835</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>96.69355595699723</v>
+        <v>84.97056130283741</v>
       </c>
       <c r="J23" t="n">
-        <v>184.013581201709</v>
+        <v>468.9358170524146</v>
       </c>
       <c r="K23" t="n">
-        <v>263.4326469954231</v>
+        <v>251.709652341262</v>
       </c>
       <c r="L23" t="n">
-        <v>320.8510555658054</v>
+        <v>309.1280609116455</v>
       </c>
       <c r="M23" t="n">
-        <v>354.2167255707413</v>
+        <v>342.4937309165814</v>
       </c>
       <c r="N23" t="n">
-        <v>359.54744658861</v>
+        <v>347.8244519344503</v>
       </c>
       <c r="O23" t="n">
-        <v>340.891095643979</v>
+        <v>329.1681009898193</v>
       </c>
       <c r="P23" t="n">
-        <v>294.5726882075915</v>
+        <v>282.8496935534317</v>
       </c>
       <c r="Q23" t="n">
-        <v>227.381681977085</v>
+        <v>215.6586873229253</v>
       </c>
       <c r="R23" t="n">
-        <v>142.6295499296839</v>
+        <v>130.9065552755242</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -36448,7 +36448,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36515,31 +36515,31 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>171.7293121344643</v>
+        <v>160.0063174803045</v>
       </c>
       <c r="K25" t="n">
-        <v>400.0860861464045</v>
+        <v>388.3630914922446</v>
       </c>
       <c r="L25" t="n">
-        <v>572.3306601338439</v>
+        <v>560.6076654796841</v>
       </c>
       <c r="M25" t="n">
-        <v>156.6980429139153</v>
+        <v>144.9750482597553</v>
       </c>
       <c r="N25" t="n">
-        <v>153.5611938890265</v>
+        <v>204.8186017698761</v>
       </c>
       <c r="O25" t="n">
-        <v>345.6963492295463</v>
+        <v>555.9151878910825</v>
       </c>
       <c r="P25" t="n">
-        <v>477.5784043376484</v>
+        <v>465.8554096834882</v>
       </c>
       <c r="Q25" t="n">
-        <v>265.1380972133684</v>
+        <v>253.4151025592082</v>
       </c>
       <c r="R25" t="n">
-        <v>41.41188163940816</v>
+        <v>29.68888698524835</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>96.69355595699726</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
-        <v>184.013581201709</v>
+        <v>240.3445448142815</v>
       </c>
       <c r="K26" t="n">
-        <v>263.4326469954218</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>320.8510555658053</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>354.2167255707415</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N26" t="n">
-        <v>359.54744658861</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>340.891095643979</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>294.5726882075915</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>227.381681977085</v>
+        <v>748.4075614369995</v>
       </c>
       <c r="R26" t="n">
-        <v>142.6295499296843</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
         <v>94.84175691562339</v>
@@ -36685,7 +36685,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
         <v>238.8413159742734</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>171.7293121344643</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K28" t="n">
-        <v>400.0860861464046</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L28" t="n">
-        <v>350.3888268181474</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M28" t="n">
-        <v>156.6980429139153</v>
+        <v>596.048746989336</v>
       </c>
       <c r="N28" t="n">
-        <v>153.5611938890265</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O28" t="n">
-        <v>567.6381825452422</v>
+        <v>434.6362341499139</v>
       </c>
       <c r="P28" t="n">
-        <v>477.5784043376484</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q28" t="n">
-        <v>265.1380972133684</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
-        <v>41.41188163940819</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>96.69355595699723</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>184.013581201709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>263.4326469954218</v>
+        <v>694.7012126872921</v>
       </c>
       <c r="L29" t="n">
-        <v>320.8510555658054</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>354.2167255707413</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N29" t="n">
-        <v>359.54744658861</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>340.891095643979</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>294.5726882075915</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
-        <v>227.381681977085</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R29" t="n">
-        <v>142.6295499296848</v>
+        <v>288.7178273103004</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
         <v>94.84175691562339</v>
@@ -36922,7 +36922,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36989,31 +36989,31 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>84.27508469538361</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>241.3066404822295</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>149.8964361258026</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M31" t="n">
-        <v>156.6980429139153</v>
+        <v>596.0487469893359</v>
       </c>
       <c r="N31" t="n">
-        <v>600.2872576846271</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O31" t="n">
-        <v>567.6381825452422</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>477.5784043376484</v>
+        <v>452.8039900485101</v>
       </c>
       <c r="Q31" t="n">
-        <v>265.1380972133684</v>
+        <v>74.68994474517604</v>
       </c>
       <c r="R31" t="n">
-        <v>41.41188163940816</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>96.69355595699723</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>184.013581201709</v>
+        <v>598.8903663599629</v>
       </c>
       <c r="K32" t="n">
-        <v>263.4326469954218</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>320.8510555658054</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M32" t="n">
-        <v>354.2167255707413</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N32" t="n">
-        <v>359.54744658861</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>340.891095643979</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P32" t="n">
-        <v>294.5726882075915</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
-        <v>227.381681977085</v>
+        <v>389.8617398913184</v>
       </c>
       <c r="R32" t="n">
-        <v>142.6295499296848</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J33" t="n">
         <v>94.84175691562339</v>
@@ -37159,7 +37159,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742734</v>
@@ -37226,31 +37226,31 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>171.7293121344643</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K34" t="n">
-        <v>400.0860861464045</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L34" t="n">
-        <v>572.3306601338439</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M34" t="n">
-        <v>156.6980429139153</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
-        <v>153.5611938890265</v>
+        <v>508.9762036458162</v>
       </c>
       <c r="O34" t="n">
-        <v>345.6963492295458</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>477.5784043376484</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q34" t="n">
-        <v>265.1380972133684</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
-        <v>41.41188163940816</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37305,13 +37305,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K35" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M35" t="n">
         <v>329.4423112816032</v>
@@ -37320,16 +37320,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916782</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J36" t="n">
         <v>94.84175691562339</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>171.7293121344642</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K37" t="n">
-        <v>400.0860861464045</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>572.3306601338439</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M37" t="n">
-        <v>156.6980429139153</v>
+        <v>236.9238661190989</v>
       </c>
       <c r="N37" t="n">
-        <v>153.5611938890265</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O37" t="n">
-        <v>143.7298499939479</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P37" t="n">
-        <v>431.8007606818655</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
-        <v>265.1380972133684</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R37" t="n">
-        <v>41.41188163940816</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
         <v>296.0766412766674</v>
@@ -37557,16 +37557,16 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548414</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405469</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
         <v>94.84175691562339</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>149.883081275747</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K40" t="n">
-        <v>378.2398552876873</v>
+        <v>275.6693847902793</v>
       </c>
       <c r="L40" t="n">
-        <v>550.4844292751269</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M40" t="n">
-        <v>285.6902461278714</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>131.7149630303093</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>121.8836191352307</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P40" t="n">
-        <v>455.7321734789311</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q40" t="n">
-        <v>243.2918663546507</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
-        <v>19.56565078069095</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37779,13 +37779,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37797,13 +37797,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687948</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
         <v>94.84175691562339</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619344</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N43" t="n">
-        <v>270.2548228172334</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320033</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>227.2024143463636</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.2391669125714</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38034,13 +38034,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405465</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L46" t="n">
-        <v>194.398217601871</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619344</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N46" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O46" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>81.10166275847632</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
